--- a/assets/data/cal.xlsx
+++ b/assets/data/cal.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Adam\Work\NHSEI Temp\web\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A600B53-D5D5-42B6-94A2-462164EC95C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85CA0489-76D2-4707-8B1E-FFFDA1E1CB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82A5DDB3-43B2-4AB0-A899-82CCFF3D5E19}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0ABE9793-A59E-44DA-A983-FD8E773D2328}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="web" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,6 +37,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
+    <t>Session</t>
+  </si>
+  <si>
     <t>Day</t>
   </si>
   <si>
@@ -46,151 +49,148 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Eventbrite URL</t>
-  </si>
-  <si>
-    <t>Session</t>
+    <t>Registration Link</t>
+  </si>
+  <si>
+    <t>Step 1</t>
   </si>
   <si>
     <t>Thursday</t>
   </si>
   <si>
-    <t>https://20220915-MDC-Step1.eventbrite.co.uk</t>
-  </si>
-  <si>
-    <t>Step 1</t>
+    <t>15 September 2022</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://20220915-MDC-Step1.eventbrite.co.uk" target="_blank"&gt;Registration Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Step 1 for Finance</t>
   </si>
   <si>
     <t>Tuesday</t>
   </si>
   <si>
-    <t>https://20220920-MDCF-Step1.eventbrite.co.uk</t>
-  </si>
-  <si>
-    <t>Step 1 for Finance</t>
-  </si>
-  <si>
-    <t>https://20221101-MDC-Step1.eventbrite.co.uk</t>
+    <t>20 September 2022</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://20220920-MDCF-Step1.eventbrite.co.uk" target="_blank"&gt;Registration Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>01 November 2022</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://20221101-MDC-Step1.eventbrite.co.uk" target="_blank"&gt;Registration Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Step 2</t>
   </si>
   <si>
     <t>Wednesday</t>
   </si>
   <si>
-    <t>https://20220921-MDC-Step2.eventbrite.co.uk</t>
-  </si>
-  <si>
-    <t>Step 2</t>
-  </si>
-  <si>
-    <t>https://20221109-MDC-Step2.eventbrite.co.uk</t>
-  </si>
-  <si>
-    <t>https://20220928-MDC-Step3.eventbrite.co.uk</t>
+    <t>21 September 2022</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://20220921-MDC-Step2.eventbrite.co.uk" target="_blank"&gt;Registration Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>09 November 2022</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://20221109-MDC-Step2.eventbrite.co.uk" target="_blank"&gt;Registration Link&lt;/a&gt;</t>
   </si>
   <si>
     <t>Step 3</t>
   </si>
   <si>
-    <t>https://20221115-MDC-Step3.eventbrite.co.uk</t>
-  </si>
-  <si>
-    <t>https://20221004-MDC-Step4.eventbrite.co.uk</t>
+    <t>28 September 2022</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://20220928-MDC-Step3.eventbrite.co.uk" target="_blank"&gt;Registration Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>15 November 2022</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://20221115-MDC-Step3.eventbrite.co.uk" target="_blank"&gt;Registration Link&lt;/a&gt;</t>
   </si>
   <si>
     <t>Step 4</t>
   </si>
   <si>
-    <t>https://20221123-MDC-Step4.eventbrite.co.uk</t>
-  </si>
-  <si>
-    <t>https://20221108-MDCF-Step1.eventbrite.co.uk</t>
-  </si>
-  <si>
-    <t>https://20221012-MDC-Step5.eventbrite.co.uk</t>
+    <t>04 October 2022</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://20221004-MDC-Step4.eventbrite.co.uk" target="_blank"&gt;Registration Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>23 November 2022</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://20221123-MDC-Step4.eventbrite.co.uk" target="_blank"&gt;Registration Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>08 November 2022</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://20221108-MDCF-Step1.eventbrite.co.uk" target="_blank"&gt;Registration Link&lt;/a&gt;</t>
   </si>
   <si>
     <t>Step 5</t>
   </si>
   <si>
-    <t>https://20221201-MDC-Step5.eventbrite.co.uk</t>
-  </si>
-  <si>
-    <t>https://20221020-MDC-Step6.eventbrite.co.uk</t>
+    <t>12 October 2022</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://20221012-MDC-Step5.eventbrite.co.uk" target="_blank"&gt;Registration Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>01 December 2022</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://20221201-MDC-Step5.eventbrite.co.uk" target="_blank"&gt;Registration Link&lt;/a&gt;</t>
   </si>
   <si>
     <t>Step 6</t>
   </si>
   <si>
-    <t>https://20221206-MDC-Step6.eventbrite.co.uk</t>
-  </si>
-  <si>
-    <t>https://20221026-MDC-Step7.eventbrite.co.uk</t>
+    <t>20 October 2022</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://20221020-MDC-Step6.eventbrite.co.uk" target="_blank"&gt;Registration Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>06 December 2022</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://20221206-MDC-Step6.eventbrite.co.uk" target="_blank"&gt;Registration Link&lt;/a&gt;</t>
   </si>
   <si>
     <t>Step 7</t>
   </si>
   <si>
-    <t>https://20221215-MDC-Step7.eventbrite.co.uk</t>
-  </si>
-  <si>
-    <t>15/09/2022</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>20/09/2022</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>01/11/2022</t>
-  </si>
-  <si>
-    <t>21/09/2022</t>
-  </si>
-  <si>
-    <t>09/11/2022</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>28/09/2022</t>
-  </si>
-  <si>
-    <t>15/11/2022</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>04/10/2022</t>
-  </si>
-  <si>
-    <t>23/11/2022</t>
-  </si>
-  <si>
-    <t>08/11/2022</t>
-  </si>
-  <si>
-    <t>12/10/2022</t>
-  </si>
-  <si>
-    <t>01/12/2022</t>
-  </si>
-  <si>
-    <t>20/10/2022</t>
-  </si>
-  <si>
-    <t>06/12/2022</t>
-  </si>
-  <si>
-    <t>26/10/2022</t>
-  </si>
-  <si>
-    <t>15/12/2022</t>
+    <t>26 October 2022</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://20221026-MDC-Step7.eventbrite.co.uk" target="_blank"&gt;Registration Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>15 December 2022</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://20221215-MDC-Step7.eventbrite.co.uk" target="_blank"&gt;Registration Link&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -214,7 +214,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -222,12 +222,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,7 +557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81C9BA2-2ADA-433A-890F-9C73C3B43685}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337122C2-98AE-4BF6-BD1E-B803C487BFD9}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -550,305 +566,305 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="88.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="E16" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="E17" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E17">
-    <sortCondition ref="E2:E17"/>
+    <sortCondition ref="A2:A17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
